--- a/results/I3_N5_M2_T30_C100_DepCentral_s2_P6_res.xlsx
+++ b/results/I3_N5_M2_T30_C100_DepCentral_s2_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1572.348656341189</v>
+        <v>1287.706724749106</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.007999897003173828</v>
+        <v>0.00800013542175293</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.62064465988292</v>
+        <v>10.62751920310701</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.074935918213756</v>
+        <v>9.619878869364404</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1275.390000000009</v>
+        <v>876</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>278.79</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -639,7 +639,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
@@ -846,7 +846,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -868,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -879,7 +879,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -890,7 +890,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -962,7 +962,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21.95858503259002</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -970,7 +970,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>11.29375422704624</v>
       </c>
     </row>
     <row r="5">
@@ -978,7 +978,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>22.99312545677591</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -986,7 +986,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -994,7 +994,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8.041414967409978</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1024,7 +1024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1261,76 +1261,6 @@
         <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>4</v>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>4</v>
-      </c>
-      <c r="B20" t="n">
-        <v>3</v>
-      </c>
-      <c r="C20" t="n">
-        <v>4</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>4</v>
-      </c>
-      <c r="B21" t="n">
-        <v>3</v>
-      </c>
-      <c r="C21" t="n">
-        <v>5</v>
-      </c>
-      <c r="D21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>185.1550000000012</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8">
@@ -1444,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>172.9400000000012</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9">
@@ -1455,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>174.3450000000012</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10">
@@ -1466,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>171.1450000000011</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11">
@@ -1477,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>176.4400000000012</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12">
@@ -1488,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>141.5</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
@@ -1499,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>135.9050000000013</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
@@ -1510,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>133.05</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15">
@@ -1521,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>131.6350000000013</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16">
@@ -1532,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>132.5700000000013</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17">
@@ -1543,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>147.3399999999997</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18">
@@ -1554,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>159.2049999999997</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19">
@@ -1565,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>140.4299999999997</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20">
@@ -1576,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>157.7</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21">
@@ -1587,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>152.9949999999997</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22">
@@ -1598,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>106.1700000000004</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23">
@@ -1609,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>112.4900000000004</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">
@@ -1620,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>102.5700000000004</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25">
@@ -1631,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>110.05</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26">
@@ -1642,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>107.6750000000004</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27">
@@ -1653,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>41.18000000000073</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28">
@@ -1664,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>37.41500000000073</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29">
@@ -1675,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>34.38500000000073</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30">
@@ -1686,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>34.59500000000072</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -1697,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>36.59000000000073</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1708,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>185.1550000000012</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33">
@@ -1719,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>172.9400000000012</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34">
@@ -1730,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>174.3450000000012</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35">
@@ -1741,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>171.1450000000011</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36">
@@ -1752,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>176.4400000000012</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37">
@@ -1763,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>147.3399999999997</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38">
@@ -1774,7 +1704,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>159.2049999999997</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39">
@@ -1785,7 +1715,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>140.4299999999997</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40">
@@ -1796,7 +1726,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>157.7</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41">
@@ -1807,7 +1737,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>152.9949999999997</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1854,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>85.15500000000117</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
@@ -1865,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>72.94000000000116</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
@@ -1876,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>74.34500000000116</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -1887,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>71.14500000000115</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
@@ -1898,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>76.44000000000116</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
@@ -1909,7 +1839,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>47.33999999999972</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -1920,7 +1850,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>59.20499999999973</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
@@ -1931,7 +1861,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>40.42999999999972</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
@@ -1942,7 +1872,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>57.69999999999999</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
@@ -1953,7 +1883,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>52.99499999999972</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2000,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2011,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2022,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2033,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2044,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2055,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>10.945</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -2066,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>17.125</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2077,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>18.02</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -2088,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>19.835</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -2099,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>19.94</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -2110,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -2121,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -2132,7 +2062,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -2143,7 +2073,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -2154,7 +2084,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -2165,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -2176,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -2187,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -2198,7 +2128,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -2209,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -2220,7 +2150,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>11.055</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -2231,7 +2161,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>6.935</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -2242,7 +2172,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>10.14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -2253,7 +2183,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>11.19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2264,7 +2194,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>14.21</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2278,7 +2208,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2468,61 +2398,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>4</v>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>4</v>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>4</v>
-      </c>
-      <c r="B21" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
